--- a/Code/Results/Cases/Case_3_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_122/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.79903468054261</v>
+        <v>16.10851146413066</v>
       </c>
       <c r="C2">
-        <v>18.78925411564561</v>
+        <v>11.05391165979971</v>
       </c>
       <c r="D2">
-        <v>10.20768183969951</v>
+        <v>11.48359070204429</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.33127414364222</v>
+        <v>29.49622051426013</v>
       </c>
       <c r="G2">
-        <v>2.066715797973419</v>
+        <v>3.626073317721493</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.883686176787878</v>
+        <v>18.81552094442745</v>
       </c>
       <c r="J2">
-        <v>8.307941527913808</v>
+        <v>11.30401753026426</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.13860896357758</v>
+        <v>21.062584078276</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.16322476613141</v>
+        <v>15.34610451830353</v>
       </c>
       <c r="C3">
-        <v>17.56570596143735</v>
+        <v>10.4013205504982</v>
       </c>
       <c r="D3">
-        <v>9.685373941575474</v>
+        <v>11.37995789418844</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.78341166022692</v>
+        <v>29.56484383084852</v>
       </c>
       <c r="G3">
-        <v>2.072819245944166</v>
+        <v>3.628327604257554</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.33161053132367</v>
+        <v>18.98843690469477</v>
       </c>
       <c r="J3">
-        <v>8.024200558869467</v>
+        <v>11.28528854685482</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.10766063580011</v>
+        <v>21.18141356598817</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.09979940773849</v>
+        <v>14.85790877311013</v>
       </c>
       <c r="C4">
-        <v>16.77086183022913</v>
+        <v>9.978252396925766</v>
       </c>
       <c r="D4">
-        <v>9.354183148317114</v>
+        <v>11.31766441546204</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.47176891263257</v>
+        <v>29.61747740993712</v>
       </c>
       <c r="G4">
-        <v>2.076671011163957</v>
+        <v>3.629783771727726</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.6192161038997</v>
+        <v>19.10021739879007</v>
       </c>
       <c r="J4">
-        <v>7.850839209601555</v>
+        <v>11.27611607421313</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.11222680466719</v>
+        <v>21.26136183060021</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.65153254839547</v>
+        <v>14.65413578693503</v>
       </c>
       <c r="C5">
-        <v>16.43596421375426</v>
+        <v>9.800303304913664</v>
       </c>
       <c r="D5">
-        <v>9.216727680749678</v>
+        <v>11.29263831841242</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.35099915403784</v>
+        <v>29.64155228747178</v>
       </c>
       <c r="G5">
-        <v>2.078267708458806</v>
+        <v>3.630395342900458</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.73942868421577</v>
+        <v>19.14718089753013</v>
       </c>
       <c r="J5">
-        <v>7.780494705455814</v>
+        <v>11.27296578279413</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.11969670460313</v>
+        <v>21.29568891017075</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.57619567155431</v>
+        <v>14.62001484984883</v>
       </c>
       <c r="C6">
-        <v>16.37969004836219</v>
+        <v>9.770422830148599</v>
       </c>
       <c r="D6">
-        <v>9.193757570412723</v>
+        <v>11.2885050866974</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.33132107542996</v>
+        <v>29.64570809723799</v>
       </c>
       <c r="G6">
-        <v>2.07853449829223</v>
+        <v>3.630497993066865</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.75956792844363</v>
+        <v>19.15506448071311</v>
       </c>
       <c r="J6">
-        <v>7.768834913175951</v>
+        <v>11.27247822702303</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.12126638865467</v>
+        <v>21.30149416867182</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.09381438862649</v>
+        <v>14.85517985801721</v>
       </c>
       <c r="C7">
-        <v>16.76638982768613</v>
+        <v>9.975874844722773</v>
       </c>
       <c r="D7">
-        <v>9.352339254946425</v>
+        <v>11.31732542170703</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.47011497172256</v>
+        <v>29.61779147761073</v>
       </c>
       <c r="G7">
-        <v>2.076692434059711</v>
+        <v>3.629791945937292</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.62082531807871</v>
+        <v>19.10084504562998</v>
       </c>
       <c r="J7">
-        <v>7.849889179089323</v>
+        <v>11.27607120646368</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.11230526174104</v>
+        <v>21.2618177143465</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.24721554288098</v>
+        <v>15.84992073104715</v>
       </c>
       <c r="C8">
-        <v>18.37639647910634</v>
+        <v>10.83358468673863</v>
       </c>
       <c r="D8">
-        <v>10.02984653148079</v>
+        <v>11.44759431083397</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.13724601370756</v>
+        <v>29.51769501292349</v>
       </c>
       <c r="G8">
-        <v>2.068799170471827</v>
+        <v>3.626835682507378</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.03541733975996</v>
+        <v>18.87397903306866</v>
       </c>
       <c r="J8">
-        <v>8.209979428754961</v>
+        <v>11.29707832563793</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.12285905146691</v>
+        <v>21.10210086686414</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.00515173248306</v>
+        <v>17.63336675814609</v>
       </c>
       <c r="C9">
-        <v>21.18985319329089</v>
+        <v>12.33537166884468</v>
       </c>
       <c r="D9">
-        <v>11.27014945149918</v>
+        <v>11.71264020430491</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.64046301073696</v>
+        <v>29.40525861739872</v>
       </c>
       <c r="G9">
-        <v>2.054105772925079</v>
+        <v>3.621607235762687</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.996272359795855</v>
+        <v>18.47353495093181</v>
       </c>
       <c r="J9">
-        <v>8.919524155221215</v>
+        <v>11.35661502875494</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.34398298556119</v>
+        <v>20.84474460269296</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.48808857241654</v>
+        <v>18.83305440302279</v>
       </c>
       <c r="C10">
-        <v>23.05076593156386</v>
+        <v>13.32635314936742</v>
       </c>
       <c r="D10">
-        <v>12.12253268533956</v>
+        <v>11.91181522690055</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.8608924559507</v>
+        <v>29.37443044667602</v>
       </c>
       <c r="G10">
-        <v>2.043726873224665</v>
+        <v>3.618108820619738</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.316216531160538</v>
+        <v>18.20632556285357</v>
       </c>
       <c r="J10">
-        <v>9.439049157289501</v>
+        <v>11.41134506138749</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.64549596214792</v>
+        <v>20.69027334146211</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.5585636435854</v>
+        <v>19.35345684509262</v>
       </c>
       <c r="C11">
-        <v>23.85347144114547</v>
+        <v>13.7524589111671</v>
       </c>
       <c r="D11">
-        <v>12.49687934558943</v>
+        <v>12.0030873806089</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.44057346402366</v>
+        <v>29.37175836120711</v>
       </c>
       <c r="G11">
-        <v>2.03908061950452</v>
+        <v>3.616590950290865</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.030460022070974</v>
+        <v>18.09060950823104</v>
       </c>
       <c r="J11">
-        <v>9.674406575856123</v>
+        <v>11.43857848938953</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.81596855567345</v>
+        <v>20.62763438082174</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.95554926223371</v>
+        <v>19.54678857899937</v>
       </c>
       <c r="C12">
-        <v>24.15121201313806</v>
+        <v>13.91024628801863</v>
       </c>
       <c r="D12">
-        <v>12.63667636981177</v>
+        <v>12.03772003170617</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.66355259672205</v>
+        <v>29.37238516673973</v>
       </c>
       <c r="G12">
-        <v>2.037330660788944</v>
+        <v>3.61602669074961</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.926273746396835</v>
+        <v>18.04762958367549</v>
       </c>
       <c r="J12">
-        <v>9.763354485544477</v>
+        <v>11.44922201170774</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.88553069954915</v>
+        <v>20.60502166570505</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.87042222474625</v>
+        <v>19.5053184250036</v>
       </c>
       <c r="C13">
-        <v>24.08736389337436</v>
+        <v>13.87642293770135</v>
       </c>
       <c r="D13">
-        <v>12.60665609092334</v>
+        <v>12.03025857530519</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.6153766166518</v>
+        <v>29.37217721119961</v>
       </c>
       <c r="G13">
-        <v>2.037707146615647</v>
+        <v>3.616147746909906</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.948521425012273</v>
+        <v>18.05684875863307</v>
       </c>
       <c r="J13">
-        <v>9.744206277282418</v>
+        <v>11.44691511260754</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.87032334656055</v>
+        <v>20.60984231309423</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.59139119743238</v>
+        <v>19.36943763976146</v>
       </c>
       <c r="C14">
-        <v>23.87809106532267</v>
+        <v>13.76551179653922</v>
       </c>
       <c r="D14">
-        <v>12.50841993839905</v>
+        <v>12.00593537768651</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.45884888879754</v>
+        <v>29.37177705772348</v>
       </c>
       <c r="G14">
-        <v>2.038936467439887</v>
+        <v>3.616544317696788</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.02180373927504</v>
+        <v>18.08705670608965</v>
       </c>
       <c r="J14">
-        <v>9.681728083471137</v>
+        <v>11.43944753951636</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.82158996078666</v>
+        <v>20.62575177035462</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.41938861599818</v>
+        <v>19.28571816624662</v>
       </c>
       <c r="C15">
-        <v>23.74909691454711</v>
+        <v>13.69711021530708</v>
       </c>
       <c r="D15">
-        <v>12.44799153617451</v>
+        <v>11.99104504707948</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.36342114605417</v>
+        <v>29.37174551188773</v>
       </c>
       <c r="G15">
-        <v>2.039690654701613</v>
+        <v>3.616788597790701</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.067236656270659</v>
+        <v>18.10566923057682</v>
       </c>
       <c r="J15">
-        <v>9.64343448231239</v>
+        <v>11.43491635632821</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.79239751780365</v>
+        <v>20.63564127016678</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.41695182440073</v>
+        <v>18.79852693266317</v>
       </c>
       <c r="C16">
-        <v>22.99743160026066</v>
+        <v>13.29800746447809</v>
       </c>
       <c r="D16">
-        <v>12.09779536693294</v>
+        <v>11.90586156544707</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.82349680414139</v>
+        <v>29.37483407839268</v>
       </c>
       <c r="G16">
-        <v>2.044031917923614</v>
+        <v>3.61820949283348</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.335416619191024</v>
+        <v>18.21400533498076</v>
       </c>
       <c r="J16">
-        <v>9.423644957309911</v>
+        <v>11.40961187687111</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.63504473687388</v>
+        <v>20.69452135353388</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.7869460631547</v>
+        <v>18.49309145592402</v>
       </c>
       <c r="C17">
-        <v>22.52513497660916</v>
+        <v>13.04683032734951</v>
       </c>
       <c r="D17">
-        <v>11.87949963335405</v>
+        <v>11.85375644634969</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.49850164156391</v>
+        <v>29.37964130781092</v>
       </c>
       <c r="G17">
-        <v>2.046713479239658</v>
+        <v>3.61909997119598</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.506381737809814</v>
+        <v>18.28196116810656</v>
       </c>
       <c r="J17">
-        <v>9.288531334661837</v>
+        <v>11.39468328736669</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.54720959939978</v>
+        <v>20.73260395925935</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.41902081692861</v>
+        <v>18.31503198188075</v>
       </c>
       <c r="C18">
-        <v>22.24935168639215</v>
+        <v>12.90003594140695</v>
       </c>
       <c r="D18">
-        <v>11.75268063924535</v>
+        <v>11.82385123948679</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.31388204106924</v>
+        <v>29.38347451656939</v>
       </c>
       <c r="G18">
-        <v>2.04826300266875</v>
+        <v>3.619619079418041</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.606891983960782</v>
+        <v>18.32159715770853</v>
       </c>
       <c r="J18">
-        <v>9.210727018719712</v>
+        <v>11.38631701409938</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.499813456447</v>
+        <v>20.75522572151861</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.29348909553078</v>
+        <v>18.25433814709236</v>
       </c>
       <c r="C19">
-        <v>22.15526451499667</v>
+        <v>12.84993541021873</v>
       </c>
       <c r="D19">
-        <v>11.70952655825762</v>
+        <v>11.81373768308361</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.25177154121089</v>
+        <v>29.38495562263381</v>
       </c>
       <c r="G19">
-        <v>2.048788913267309</v>
+        <v>3.619796032226902</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.641280017973026</v>
+        <v>18.33511163005348</v>
       </c>
       <c r="J19">
-        <v>9.184369566201569</v>
+        <v>11.38352231715849</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.48429546069125</v>
+        <v>20.76300801280874</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.85458620010138</v>
+        <v>18.5258527141048</v>
       </c>
       <c r="C20">
-        <v>22.57583874303051</v>
+        <v>13.07380923415823</v>
       </c>
       <c r="D20">
-        <v>11.902868384708</v>
+        <v>11.85929666097543</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.53285941278609</v>
+        <v>29.3790189623932</v>
       </c>
       <c r="G20">
-        <v>2.046427290694504</v>
+        <v>3.619004461568496</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.487952977849448</v>
+        <v>18.27467027622146</v>
       </c>
       <c r="J20">
-        <v>9.302924081387193</v>
+        <v>11.3962497015</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.55623478307814</v>
+        <v>20.72847565342581</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.67357591464822</v>
+        <v>19.40945107460378</v>
       </c>
       <c r="C21">
-        <v>23.93972791268687</v>
+        <v>13.79818608024918</v>
       </c>
       <c r="D21">
-        <v>12.53732764691424</v>
+        <v>12.01307800055146</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.50473117407041</v>
+        <v>29.37185007806428</v>
       </c>
       <c r="G21">
-        <v>2.038575140079105</v>
+        <v>3.61642755003611</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.000163935283517</v>
+        <v>18.0781611253435</v>
       </c>
       <c r="J21">
-        <v>9.70008447288795</v>
+        <v>11.44163201189327</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.83576662682135</v>
+        <v>20.62104864620713</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.81360026209975</v>
+        <v>19.9651421959559</v>
       </c>
       <c r="C22">
-        <v>24.79485525182972</v>
+        <v>14.25079743477249</v>
       </c>
       <c r="D22">
-        <v>12.94055547554019</v>
+        <v>12.11397830725583</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.16009700884921</v>
+        <v>29.37671787867423</v>
       </c>
       <c r="G22">
-        <v>2.033497843636872</v>
+        <v>3.614804711857669</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.705231697494543</v>
+        <v>17.95462267323239</v>
       </c>
       <c r="J22">
-        <v>9.958612726525464</v>
+        <v>11.47321751131506</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.04772849041423</v>
+        <v>20.55729762658141</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.2095748113713</v>
+        <v>19.67057874275707</v>
       </c>
       <c r="C23">
-        <v>24.34174785046485</v>
+        <v>14.0111388848265</v>
       </c>
       <c r="D23">
-        <v>12.72639742388957</v>
+        <v>12.06009828310516</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.80848290656128</v>
+        <v>29.37324410819021</v>
       </c>
       <c r="G23">
-        <v>2.036203171424622</v>
+        <v>3.615665258257192</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.860207419658516</v>
+        <v>18.02010996888198</v>
       </c>
       <c r="J23">
-        <v>9.820735282761197</v>
+        <v>11.45618536827835</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.93185720669587</v>
+        <v>20.59072849899053</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.8240239391584</v>
+        <v>18.51104900641892</v>
       </c>
       <c r="C24">
-        <v>22.55292882517809</v>
+        <v>13.06161951116703</v>
       </c>
       <c r="D24">
-        <v>11.89230747447797</v>
+        <v>11.85679176998411</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.51731933119779</v>
+        <v>29.37929699386069</v>
       </c>
       <c r="G24">
-        <v>2.046556651960689</v>
+        <v>3.619047619162094</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.49627775041408</v>
+        <v>18.27796472129964</v>
       </c>
       <c r="J24">
-        <v>9.296417509197353</v>
+        <v>11.39554085131171</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.552144854029</v>
+        <v>20.73033979486093</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.03776818262068</v>
+        <v>17.1697937858121</v>
       </c>
       <c r="C25">
-        <v>20.46521488611122</v>
+        <v>11.94869647948781</v>
       </c>
       <c r="D25">
-        <v>10.94467107643199</v>
+        <v>11.64005495285156</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.21318117276671</v>
+        <v>29.42662452301256</v>
       </c>
       <c r="G25">
-        <v>2.058002831419698</v>
+        <v>3.622961173594798</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.264254486790097</v>
+        <v>18.57711842782625</v>
       </c>
       <c r="J25">
-        <v>8.727644201869133</v>
+        <v>11.33856324297035</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.26088110516188</v>
+        <v>20.90832911436895</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_122/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.10851146413066</v>
+        <v>24.7990346805426</v>
       </c>
       <c r="C2">
-        <v>11.05391165979971</v>
+        <v>18.78925411564568</v>
       </c>
       <c r="D2">
-        <v>11.48359070204429</v>
+        <v>10.20768183969952</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.49622051426013</v>
+        <v>21.33127414364218</v>
       </c>
       <c r="G2">
-        <v>3.626073317721493</v>
+        <v>2.066715797973284</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.81552094442745</v>
+        <v>9.88368617678786</v>
       </c>
       <c r="J2">
-        <v>11.30401753026426</v>
+        <v>8.307941527913815</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.062584078276</v>
+        <v>13.13860896357753</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.34610451830353</v>
+        <v>23.16322476613141</v>
       </c>
       <c r="C3">
-        <v>10.4013205504982</v>
+        <v>17.56570596143728</v>
       </c>
       <c r="D3">
-        <v>11.37995789418844</v>
+        <v>9.685373941575458</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.56484383084852</v>
+        <v>20.78341166022696</v>
       </c>
       <c r="G3">
-        <v>3.628327604257554</v>
+        <v>2.072819245943898</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.98843690469477</v>
+        <v>10.33161053132369</v>
       </c>
       <c r="J3">
-        <v>11.28528854685482</v>
+        <v>8.024200558869474</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.18141356598817</v>
+        <v>13.10766063580015</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.85790877311013</v>
+        <v>22.09979940773852</v>
       </c>
       <c r="C4">
-        <v>9.978252396925766</v>
+        <v>16.77086183022908</v>
       </c>
       <c r="D4">
-        <v>11.31766441546204</v>
+        <v>9.354183148317068</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.61747740993712</v>
+        <v>20.47176891263278</v>
       </c>
       <c r="G4">
-        <v>3.629783771727726</v>
+        <v>2.076671011164091</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.10021739879007</v>
+        <v>10.61921610389988</v>
       </c>
       <c r="J4">
-        <v>11.27611607421313</v>
+        <v>7.850839209601541</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.26136183060021</v>
+        <v>13.11222680466737</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.65413578693503</v>
+        <v>21.65153254839557</v>
       </c>
       <c r="C5">
-        <v>9.800303304913664</v>
+        <v>16.43596421375419</v>
       </c>
       <c r="D5">
-        <v>11.29263831841242</v>
+        <v>9.216727680749615</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.64155228747178</v>
+        <v>20.35099915403775</v>
       </c>
       <c r="G5">
-        <v>3.630395342900458</v>
+        <v>2.078267708459207</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.14718089753013</v>
+        <v>10.73942868421565</v>
       </c>
       <c r="J5">
-        <v>11.27296578279413</v>
+        <v>7.780494705455816</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.29568891017075</v>
+        <v>13.11969670460302</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.62001484984883</v>
+        <v>21.57619567155445</v>
       </c>
       <c r="C6">
-        <v>9.770422830148599</v>
+        <v>16.37969004836228</v>
       </c>
       <c r="D6">
-        <v>11.2885050866974</v>
+        <v>9.19375757041273</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.64570809723799</v>
+        <v>20.33132107542964</v>
       </c>
       <c r="G6">
-        <v>3.630497993066865</v>
+        <v>2.07853449829223</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.15506448071311</v>
+        <v>10.75956792844331</v>
       </c>
       <c r="J6">
-        <v>11.27247822702303</v>
+        <v>7.768834913175954</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.30149416867182</v>
+        <v>13.12126638865434</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.85517985801721</v>
+        <v>22.09381438862653</v>
       </c>
       <c r="C7">
-        <v>9.975874844722773</v>
+        <v>16.76638982768615</v>
       </c>
       <c r="D7">
-        <v>11.31732542170703</v>
+        <v>9.352339254946324</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.61779147761073</v>
+        <v>20.47011497172242</v>
       </c>
       <c r="G7">
-        <v>3.629791945937292</v>
+        <v>2.076692434059445</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.10084504562998</v>
+        <v>10.6208253180786</v>
       </c>
       <c r="J7">
-        <v>11.27607120646368</v>
+        <v>7.849889179089366</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.2618177143465</v>
+        <v>13.11230526174094</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.84992073104715</v>
+        <v>24.24721554288095</v>
       </c>
       <c r="C8">
-        <v>10.83358468673863</v>
+        <v>18.37639647910642</v>
       </c>
       <c r="D8">
-        <v>11.44759431083397</v>
+        <v>10.02984653148081</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.51769501292349</v>
+        <v>21.13724601370753</v>
       </c>
       <c r="G8">
-        <v>3.626835682507378</v>
+        <v>2.068799170471827</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.87397903306866</v>
+        <v>10.03541733975994</v>
       </c>
       <c r="J8">
-        <v>11.29707832563793</v>
+        <v>8.209979428754961</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.10210086686414</v>
+        <v>13.12285905146688</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.63336675814609</v>
+        <v>28.00515173248307</v>
       </c>
       <c r="C9">
-        <v>12.33537166884468</v>
+        <v>21.18985319329091</v>
       </c>
       <c r="D9">
-        <v>11.71264020430491</v>
+        <v>11.27014945149918</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.40525861739872</v>
+        <v>22.64046301073702</v>
       </c>
       <c r="G9">
-        <v>3.621607235762687</v>
+        <v>2.054105772925212</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.47353495093181</v>
+        <v>8.996272359795867</v>
       </c>
       <c r="J9">
-        <v>11.35661502875494</v>
+        <v>8.919524155221218</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.84474460269296</v>
+        <v>13.34398298556124</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.83305440302279</v>
+        <v>30.48808857241656</v>
       </c>
       <c r="C10">
-        <v>13.32635314936742</v>
+        <v>23.05076593156389</v>
       </c>
       <c r="D10">
-        <v>11.91181522690055</v>
+        <v>12.12253268533954</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.37443044667602</v>
+        <v>23.86089245595067</v>
       </c>
       <c r="G10">
-        <v>3.618108820619738</v>
+        <v>2.043726873224798</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.20632556285357</v>
+        <v>8.316216531160455</v>
       </c>
       <c r="J10">
-        <v>11.41134506138749</v>
+        <v>9.439049157289501</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.69027334146211</v>
+        <v>13.64549596214789</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.35345684509262</v>
+        <v>31.55856364358538</v>
       </c>
       <c r="C11">
-        <v>13.7524589111671</v>
+        <v>23.85347144114536</v>
       </c>
       <c r="D11">
-        <v>12.0030873806089</v>
+        <v>12.49687934558937</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.37175836120711</v>
+        <v>24.44057346402366</v>
       </c>
       <c r="G11">
-        <v>3.616590950290865</v>
+        <v>2.039080619504386</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.09060950823104</v>
+        <v>8.030460022071036</v>
       </c>
       <c r="J11">
-        <v>11.43857848938953</v>
+        <v>9.674406575856134</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.62763438082174</v>
+        <v>13.81596855567351</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.54678857899937</v>
+        <v>31.95554926223368</v>
       </c>
       <c r="C12">
-        <v>13.91024628801863</v>
+        <v>24.15121201313813</v>
       </c>
       <c r="D12">
-        <v>12.03772003170617</v>
+        <v>12.63667636981178</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.37238516673973</v>
+        <v>24.66355259672213</v>
       </c>
       <c r="G12">
-        <v>3.61602669074961</v>
+        <v>2.037330660788943</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.04762958367549</v>
+        <v>7.926273746396959</v>
       </c>
       <c r="J12">
-        <v>11.44922201170774</v>
+        <v>9.763354485544436</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.60502166570505</v>
+        <v>13.88553069954922</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.5053184250036</v>
+        <v>31.87042222474625</v>
       </c>
       <c r="C13">
-        <v>13.87642293770135</v>
+        <v>24.08736389337435</v>
       </c>
       <c r="D13">
-        <v>12.03025857530519</v>
+        <v>12.60665609092329</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.37217721119961</v>
+        <v>24.61537661665186</v>
       </c>
       <c r="G13">
-        <v>3.616147746909906</v>
+        <v>2.03770714661578</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.05684875863307</v>
+        <v>7.948521425012463</v>
       </c>
       <c r="J13">
-        <v>11.44691511260754</v>
+        <v>9.744206277282382</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.60984231309423</v>
+        <v>13.87032334656064</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.36943763976146</v>
+        <v>31.59139119743239</v>
       </c>
       <c r="C14">
-        <v>13.76551179653922</v>
+        <v>23.87809106532263</v>
       </c>
       <c r="D14">
-        <v>12.00593537768651</v>
+        <v>12.50841993839907</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.37177705772348</v>
+        <v>24.45884888879758</v>
       </c>
       <c r="G14">
-        <v>3.616544317696788</v>
+        <v>2.038936467439887</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.08705670608965</v>
+        <v>8.021803739275102</v>
       </c>
       <c r="J14">
-        <v>11.43944753951636</v>
+        <v>9.681728083471173</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.62575177035462</v>
+        <v>13.82158996078669</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.28571816624662</v>
+        <v>31.41938861599826</v>
       </c>
       <c r="C15">
-        <v>13.69711021530708</v>
+        <v>23.74909691454711</v>
       </c>
       <c r="D15">
-        <v>11.99104504707948</v>
+        <v>12.4479915361745</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.37174551188773</v>
+        <v>24.36342114605417</v>
       </c>
       <c r="G15">
-        <v>3.616788597790701</v>
+        <v>2.039690654701479</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.10566923057682</v>
+        <v>8.067236656270547</v>
       </c>
       <c r="J15">
-        <v>11.43491635632821</v>
+        <v>9.643434482312397</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.63564127016678</v>
+        <v>13.7923975178036</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.79852693266317</v>
+        <v>30.4169518244007</v>
       </c>
       <c r="C16">
-        <v>13.29800746447809</v>
+        <v>22.99743160026062</v>
       </c>
       <c r="D16">
-        <v>11.90586156544707</v>
+        <v>12.09779536693296</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.37483407839268</v>
+        <v>23.82349680414147</v>
       </c>
       <c r="G16">
-        <v>3.61820949283348</v>
+        <v>2.044031917923347</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.21400533498076</v>
+        <v>8.335416619191161</v>
       </c>
       <c r="J16">
-        <v>11.40961187687111</v>
+        <v>9.423644957309911</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.69452135353388</v>
+        <v>13.63504473687395</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.49309145592402</v>
+        <v>29.78694606315473</v>
       </c>
       <c r="C17">
-        <v>13.04683032734951</v>
+        <v>22.52513497660927</v>
       </c>
       <c r="D17">
-        <v>11.85375644634969</v>
+        <v>11.8794996333541</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.37964130781092</v>
+        <v>23.49850164156389</v>
       </c>
       <c r="G17">
-        <v>3.61909997119598</v>
+        <v>2.046713479239791</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.28196116810656</v>
+        <v>8.506381737809786</v>
       </c>
       <c r="J17">
-        <v>11.39468328736669</v>
+        <v>9.288531334661855</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.73260395925935</v>
+        <v>13.54720959939972</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.31503198188075</v>
+        <v>29.41902081692865</v>
       </c>
       <c r="C18">
-        <v>12.90003594140695</v>
+        <v>22.24935168639217</v>
       </c>
       <c r="D18">
-        <v>11.82385123948679</v>
+        <v>11.75268063924533</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.38347451656939</v>
+        <v>23.31388204106916</v>
       </c>
       <c r="G18">
-        <v>3.619619079418041</v>
+        <v>2.048263002669017</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.32159715770853</v>
+        <v>8.606891983960747</v>
       </c>
       <c r="J18">
-        <v>11.38631701409938</v>
+        <v>9.210727018719727</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.75522572151861</v>
+        <v>13.4998134564469</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.25433814709236</v>
+        <v>29.2934890955308</v>
       </c>
       <c r="C19">
-        <v>12.84993541021873</v>
+        <v>22.15526451499658</v>
       </c>
       <c r="D19">
-        <v>11.81373768308361</v>
+        <v>11.70952655825759</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.38495562263381</v>
+        <v>23.25177154121087</v>
       </c>
       <c r="G19">
-        <v>3.619796032226902</v>
+        <v>2.04878891326704</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.33511163005348</v>
+        <v>8.641280017972962</v>
       </c>
       <c r="J19">
-        <v>11.38352231715849</v>
+        <v>9.184369566201585</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.76300801280874</v>
+        <v>13.48429546069123</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.5258527141048</v>
+        <v>29.85458620010141</v>
       </c>
       <c r="C20">
-        <v>13.07380923415823</v>
+        <v>22.57583874303059</v>
       </c>
       <c r="D20">
-        <v>11.85929666097543</v>
+        <v>11.902868384708</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.3790189623932</v>
+        <v>23.53285941278603</v>
       </c>
       <c r="G20">
-        <v>3.619004461568496</v>
+        <v>2.046427290694368</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.27467027622146</v>
+        <v>8.487952977849369</v>
       </c>
       <c r="J20">
-        <v>11.3962497015</v>
+        <v>9.30292408138722</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.72847565342581</v>
+        <v>13.55623478307808</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.40945107460378</v>
+        <v>31.67357591464828</v>
       </c>
       <c r="C21">
-        <v>13.79818608024918</v>
+        <v>23.93972791268672</v>
       </c>
       <c r="D21">
-        <v>12.01307800055146</v>
+        <v>12.53732764691423</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.37185007806428</v>
+        <v>24.50473117407044</v>
       </c>
       <c r="G21">
-        <v>3.61642755003611</v>
+        <v>2.03857514007897</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.0781611253435</v>
+        <v>8.000163935283465</v>
       </c>
       <c r="J21">
-        <v>11.44163201189327</v>
+        <v>9.700084472887955</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.62104864620713</v>
+        <v>13.83576662682139</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.9651421959559</v>
+        <v>32.81360026209971</v>
       </c>
       <c r="C22">
-        <v>14.25079743477249</v>
+        <v>24.79485525182973</v>
       </c>
       <c r="D22">
-        <v>12.11397830725583</v>
+        <v>12.94055547554018</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.37671787867423</v>
+        <v>25.16009700884932</v>
       </c>
       <c r="G22">
-        <v>3.614804711857669</v>
+        <v>2.033497843636737</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.95462267323239</v>
+        <v>7.705231697494709</v>
       </c>
       <c r="J22">
-        <v>11.47321751131506</v>
+        <v>9.958612726525477</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.55729762658141</v>
+        <v>14.04772849041434</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.67057874275707</v>
+        <v>32.20957481137132</v>
       </c>
       <c r="C23">
-        <v>14.0111388848265</v>
+        <v>24.34174785046479</v>
       </c>
       <c r="D23">
-        <v>12.06009828310516</v>
+        <v>12.72639742388956</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.37324410819021</v>
+        <v>24.80848290656127</v>
       </c>
       <c r="G23">
-        <v>3.615665258257192</v>
+        <v>2.036203171424757</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.02010996888198</v>
+        <v>7.860207419658457</v>
       </c>
       <c r="J23">
-        <v>11.45618536827835</v>
+        <v>9.8207352827612</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.59072849899053</v>
+        <v>13.93185720669586</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.51104900641892</v>
+        <v>29.82402393915838</v>
       </c>
       <c r="C24">
-        <v>13.06161951116703</v>
+        <v>22.55292882517803</v>
       </c>
       <c r="D24">
-        <v>11.85679176998411</v>
+        <v>11.89230747447791</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.37929699386069</v>
+        <v>23.51731933119782</v>
       </c>
       <c r="G24">
-        <v>3.619047619162094</v>
+        <v>2.046556651960288</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.27796472129964</v>
+        <v>8.496277750414158</v>
       </c>
       <c r="J24">
-        <v>11.39554085131171</v>
+        <v>9.296417509197344</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.73033979486093</v>
+        <v>13.55214485402905</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.1697937858121</v>
+        <v>27.03776818262066</v>
       </c>
       <c r="C25">
-        <v>11.94869647948781</v>
+        <v>20.46521488611129</v>
       </c>
       <c r="D25">
-        <v>11.64005495285156</v>
+        <v>10.94467107643201</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.42662452301256</v>
+        <v>22.21318117276671</v>
       </c>
       <c r="G25">
-        <v>3.622961173594798</v>
+        <v>2.058002831419698</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.57711842782625</v>
+        <v>9.264254486790104</v>
       </c>
       <c r="J25">
-        <v>11.33856324297035</v>
+        <v>8.727644201869104</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.90832911436895</v>
+        <v>13.26088110516188</v>
       </c>
     </row>
   </sheetData>
